--- a/assets/ExcelResults/BangChamCongThang11Nam2023.xlsx
+++ b/assets/ExcelResults/BangChamCongThang11Nam2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>PHÒNG KHÁM ĐA KHOA THIỆN TRANG</t>
   </si>
@@ -167,16 +167,10 @@
     <t>Trịnh Lê Phương Nghi</t>
   </si>
   <si>
-    <t>Đặng Châu Khánh Huyền</t>
-  </si>
-  <si>
-    <t>Ngô Kinh Hòa</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Nha Trang, ngày 07 tháng 11 năm 2023</t>
+    <t>Nha Trang, ngày 12 tháng 11 năm 2023</t>
   </si>
   <si>
     <t>Giám đốc Công ty</t>
@@ -664,16 +658,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:WYZ50"/>
+  <dimension ref="A1:WYZ48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:AG46"/>
+      <selection activeCell="A5" sqref="A5:AG44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.427" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="3.89" customWidth="true" style="0"/>
     <col min="4" max="4" width="3.89" customWidth="true" style="0"/>
     <col min="5" max="5" width="3.89" customWidth="true" style="0"/>
@@ -977,21 +971,35 @@
         <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="8"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -1019,20 +1027,36 @@
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="8"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1060,20 +1084,40 @@
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="8"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -1102,21 +1146,35 @@
         <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -1145,21 +1203,37 @@
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1188,21 +1262,37 @@
         <v>18</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="8"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -1231,21 +1321,37 @@
         <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="8"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -1274,21 +1380,37 @@
         <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -1317,21 +1439,37 @@
         <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="8"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -1360,21 +1498,37 @@
         <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="8"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -1403,21 +1557,35 @@
         <v>23</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="8"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -1446,21 +1614,39 @@
         <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -1489,21 +1675,37 @@
         <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="8"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -1532,21 +1734,37 @@
         <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="8"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -1575,21 +1793,37 @@
         <v>27</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -1618,21 +1852,33 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="8"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -1661,21 +1907,37 @@
         <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="8"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -1704,21 +1966,37 @@
         <v>30</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -1747,21 +2025,37 @@
         <v>31</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="8"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -1790,21 +2084,37 @@
         <v>32</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="8"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -1833,21 +2143,35 @@
         <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -1876,21 +2200,39 @@
         <v>34</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -1919,21 +2261,37 @@
         <v>35</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="8"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -1962,21 +2320,37 @@
         <v>36</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -2005,21 +2379,35 @@
         <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="8"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -2048,21 +2436,35 @@
         <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="8"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -2091,21 +2493,39 @@
         <v>39</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
@@ -2134,21 +2554,37 @@
         <v>40</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
@@ -2177,21 +2613,37 @@
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -2220,21 +2672,37 @@
         <v>42</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -2263,21 +2731,37 @@
         <v>43</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="8"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -2306,21 +2790,37 @@
         <v>44</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -2349,21 +2849,39 @@
         <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="8"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -2392,21 +2910,35 @@
         <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -2435,21 +2967,37 @@
         <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="8"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
@@ -2478,21 +3026,39 @@
         <v>48</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="G43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -2521,21 +3087,35 @@
         <v>49</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" s="8"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -2556,111 +3136,31 @@
       <c r="AF44" s="11"/>
       <c r="AG44" s="7"/>
     </row>
-    <row r="45" spans="1:16224">
-      <c r="A45" s="8">
-        <v>38</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="8" t="s">
+    <row r="46" spans="1:16224">
+      <c r="X46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16224">
+      <c r="L47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="7"/>
-    </row>
-    <row r="46" spans="1:16224">
-      <c r="A46" s="8">
-        <v>39</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="7"/>
     </row>
     <row r="48" spans="1:16224">
+      <c r="L48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="X48" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16224">
-      <c r="L49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16224">
-      <c r="L50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2672,13 +3172,13 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:AG5"/>
+    <mergeCell ref="X46:AG46"/>
+    <mergeCell ref="X47:AG47"/>
     <mergeCell ref="X48:AG48"/>
-    <mergeCell ref="X49:AG49"/>
-    <mergeCell ref="X50:AG50"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
